--- a/Test/Testcase.uc1.xlsx
+++ b/Test/Testcase.uc1.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martinbærbar\Dropbox\Datamatiker\DMU15\PTE projekt\Martin + Steffen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -298,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -450,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +541,9 @@
       <c r="C2" s="7">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>9.8160000000000007</v>
+      </c>
       <c r="E2" s="7">
         <f>10*9.816</f>
         <v>98.160000000000011</v>
@@ -530,7 +562,9 @@
       <c r="C3" s="7">
         <v>0.5</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>9.8160000000000007</v>
+      </c>
       <c r="E3" s="7">
         <f>C3*9.816</f>
         <v>4.9080000000000004</v>
